--- a/Artefatos/Planejamento de Release.xlsx
+++ b/Artefatos/Planejamento de Release.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marielen\Documents\Engenharia de Software\Venezuela\Artefatos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId3"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -133,36 +141,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -172,23 +182,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF434343"/>
         <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -201,6 +206,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -213,6 +219,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -223,6 +230,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -233,6 +241,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -247,6 +256,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -259,6 +269,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -269,6 +280,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -277,6 +289,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -285,6 +298,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -295,28 +309,7 @@
       </right>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -327,381 +320,774 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.14"/>
-    <col customWidth="1" min="2" max="2" width="43.0"/>
-    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17">
-        <v>42683.0</v>
-      </c>
-      <c r="D3" s="18">
-        <v>42689.0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>6.0</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="41">
+        <v>42683</v>
+      </c>
+      <c r="D3" s="41">
+        <v>42689</v>
+      </c>
+      <c r="E3" s="11">
+        <v>6</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="27" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="27" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="27" t="s">
+      <c r="C9" s="42">
+        <v>42690</v>
+      </c>
+      <c r="D9" s="42">
+        <v>42704</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
+      <c r="C10" s="42">
+        <v>42690</v>
+      </c>
+      <c r="D10" s="42">
+        <v>42704</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
+      <c r="C11" s="42">
+        <v>42705</v>
+      </c>
+      <c r="D11" s="42">
+        <v>42723</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="32" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="14"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -710,6 +1096,6 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Artefatos/Planejamento de Release.xlsx
+++ b/Artefatos/Planejamento de Release.xlsx
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -349,43 +349,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +415,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,39 +456,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +777,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -828,24 +789,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -860,7 +821,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="36"/>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
@@ -879,32 +840,38 @@
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="41">
-        <v>42683</v>
-      </c>
-      <c r="D3" s="41">
-        <v>42689</v>
+      <c r="C3" s="32">
+        <v>42690</v>
+      </c>
+      <c r="D3" s="32">
+        <v>42704</v>
       </c>
       <c r="E3" s="11">
         <v>6</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="37"/>
+      <c r="C4" s="31">
+        <v>42683</v>
+      </c>
+      <c r="D4" s="31">
+        <v>42689</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -913,12 +880,18 @@
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="31">
+        <v>42683</v>
+      </c>
+      <c r="D5" s="31">
+        <v>42689</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -927,12 +900,18 @@
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="32">
+        <v>42705</v>
+      </c>
+      <c r="D6" s="32">
+        <v>42723</v>
+      </c>
+      <c r="E6" s="11">
+        <v>17</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -941,12 +920,12 @@
       <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="37"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -955,12 +934,12 @@
       <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="37"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
@@ -969,16 +948,11 @@
       <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="42">
-        <v>42690</v>
-      </c>
-      <c r="D9" s="42">
-        <v>42704</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="37"/>
+      <c r="C9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
@@ -987,16 +961,12 @@
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="42">
-        <v>42690</v>
-      </c>
-      <c r="D10" s="42">
-        <v>42704</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="37"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
@@ -1005,16 +975,12 @@
       <c r="B11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="42">
-        <v>42705</v>
-      </c>
-      <c r="D11" s="42">
-        <v>42723</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -1023,9 +989,9 @@
       <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
@@ -1037,9 +1003,9 @@
       <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="14"/>
@@ -1051,9 +1017,9 @@
       <c r="B14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="14"/>
@@ -1065,9 +1031,9 @@
       <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
@@ -1079,9 +1045,9 @@
       <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
       <c r="H16" s="18"/>

--- a/Artefatos/Planejamento de Release.xlsx
+++ b/Artefatos/Planejamento de Release.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marielen\Documents\Engenharia de Software\Venezuela\Artefatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorpgcosta/Downloads/Venezuela/Artefatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -141,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,6 +172,10 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -324,7 +336,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -333,10 +345,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -347,7 +359,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -355,13 +367,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -442,6 +454,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,10 +470,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,39 +788,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -821,7 +833,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
@@ -833,7 +845,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -853,7 +865,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -869,11 +881,11 @@
       <c r="E4" s="8">
         <v>6</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="39"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
@@ -889,11 +901,11 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>17</v>
       </c>
@@ -913,7 +925,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
@@ -927,7 +939,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -941,7 +953,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -954,7 +966,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -968,7 +980,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
@@ -982,7 +994,7 @@
       <c r="G11" s="21"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
@@ -996,7 +1008,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -1010,7 +1022,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1036,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
@@ -1038,7 +1050,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>37</v>
       </c>
@@ -1052,7 +1064,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
@@ -1062,6 +1074,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>